--- a/Данные/unemp.xlsx
+++ b/Данные/unemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/askar/Desktop/ВКР/Diploma.-Inflation-model-using-PCA/Данные/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43CA80A-9DA1-1B45-A795-293E78E58E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922268B3-8886-734C-B719-7D0E0D24C9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4100" yWindow="0" windowWidth="23520" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Данные!$A$1:$M$1163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -48677,11 +48687,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="A2:A85"/>
-    <mergeCell ref="A86:A183"/>
-    <mergeCell ref="A184:A281"/>
-    <mergeCell ref="A282:A379"/>
-    <mergeCell ref="A968:A1065"/>
     <mergeCell ref="A1066:A1163"/>
     <mergeCell ref="A380:A477"/>
     <mergeCell ref="A478:A575"/>
@@ -48689,6 +48694,11 @@
     <mergeCell ref="A674:A771"/>
     <mergeCell ref="A772:A869"/>
     <mergeCell ref="A870:A967"/>
+    <mergeCell ref="A2:A85"/>
+    <mergeCell ref="A86:A183"/>
+    <mergeCell ref="A184:A281"/>
+    <mergeCell ref="A282:A379"/>
+    <mergeCell ref="A968:A1065"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -48700,9 +48710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CG133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
-      <selection activeCell="BI1" sqref="BI1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -50767,256 +50775,340 @@
         <v>41852</v>
       </c>
       <c r="B9" s="3">
-        <v>3.4</v>
+        <f>(B8+B10)/2</f>
+        <v>0.9</v>
       </c>
       <c r="C9" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
+        <f t="shared" ref="C9:BN9" si="0">(C8+C10)/2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
       <c r="E9" s="3">
-        <v>3.2</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="F9" s="3">
-        <v>2.6</v>
+        <f t="shared" si="0"/>
+        <v>0.95</v>
       </c>
       <c r="G9" s="3">
-        <v>3.9</v>
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
       </c>
       <c r="H9" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
       <c r="J9" s="3">
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="K9" s="3">
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="L9" s="3">
-        <v>3.1</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="M9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="R9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="N9" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="O9" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="W9" s="3">
-        <v>3.9</v>
-      </c>
       <c r="X9" s="3">
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>1.6</v>
       </c>
       <c r="Y9" s="3">
-        <v>3.6</v>
+        <f t="shared" si="0"/>
+        <v>1.05</v>
       </c>
       <c r="Z9" s="3">
-        <v>5.3</v>
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
       </c>
       <c r="AA9" s="3">
-        <v>2.8</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="AB9" s="3">
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="AC9" s="3">
-        <v>4.0999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
       </c>
       <c r="AD9" s="3">
-        <v>1.8</v>
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
       <c r="AE9" s="3">
-        <v>2.7</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="AF9" s="3">
-        <v>4.9000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AG9" s="3">
-        <v>6.1</v>
+        <f t="shared" si="0"/>
+        <v>1.55</v>
       </c>
       <c r="AH9" s="3">
-        <v>3.3</v>
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI9" s="3">
-        <v>5.2</v>
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
       <c r="AJ9" s="3">
-        <v>1.8</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="AK9" s="3">
-        <v>4.8</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="AL9" s="3">
-        <v>7.3</v>
+        <f t="shared" si="0"/>
+        <v>1.95</v>
       </c>
       <c r="AM9" s="3">
-        <v>18.5</v>
+        <f t="shared" si="0"/>
+        <v>11.75</v>
       </c>
       <c r="AN9" s="3">
-        <v>16.5</v>
+        <f t="shared" si="0"/>
+        <v>1.9500000000000002</v>
       </c>
       <c r="AO9" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
       </c>
       <c r="AQ9" s="3">
-        <v>19.600000000000001</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="AR9" s="3">
-        <v>6.1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="AS9" s="3">
-        <v>5.0999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="AT9" s="3">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.75</v>
       </c>
       <c r="AU9" s="3">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
       </c>
       <c r="AV9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AW9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="AX9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="AY9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="AZ9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="BA9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="BB9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="BC9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="BD9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="BE9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BF9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BG9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="BH9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="BI9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="BJ9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="BK9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BL9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="BM9" s="3">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="BN9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+      <c r="BO9" s="3">
+        <f t="shared" ref="BO9:CG9" si="1">(BO8+BO10)/2</f>
+        <v>1.4</v>
+      </c>
+      <c r="BP9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.45</v>
+      </c>
+      <c r="BQ9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BR9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+      <c r="BS9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BT9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BU9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="BV9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BW9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+      <c r="BX9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="BY9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="BZ9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.35</v>
+      </c>
+      <c r="CA9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="CB9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="CC9" s="3">
+        <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="AW9" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="BD9" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="BE9" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="BF9" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="BH9" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="BI9" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="BJ9" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="BK9" s="2">
-        <v>2</v>
-      </c>
-      <c r="BL9" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM9" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BP9" s="2">
-        <v>3</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="BR9" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="BS9" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="BT9" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="BU9" s="2">
-        <v>5</v>
-      </c>
-      <c r="BV9" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BW9" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="BX9" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BY9" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="BZ9" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="CA9" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="CB9" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="CC9" s="3">
-        <v>2.7</v>
-      </c>
       <c r="CD9" s="3">
-        <v>2.5</v>
+        <f t="shared" si="1"/>
+        <v>1.2999999999999998</v>
       </c>
       <c r="CE9" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="CF9" s="2">
-        <v>3</v>
-      </c>
-      <c r="CG9" s="2">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="CF9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="CG9" s="3">
+        <f t="shared" si="1"/>
+        <v>1.85</v>
       </c>
     </row>
     <row r="10" spans="1:85" x14ac:dyDescent="0.15">
@@ -53594,256 +53686,340 @@
         <v>42186</v>
       </c>
       <c r="B20" s="3">
-        <v>2.9</v>
+        <f>(B19+B21)/2</f>
+        <v>0.95</v>
       </c>
       <c r="C20" s="3">
-        <v>0.9</v>
+        <f t="shared" ref="C20:BN20" si="2">(C19+C21)/2</f>
+        <v>0.5</v>
       </c>
       <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="R20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.85</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="Z20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4</v>
+      </c>
+      <c r="AC20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AE20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AG20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+      <c r="AJ20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="AK20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="AL20" s="3">
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="E20" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="AM20" s="3">
+        <f t="shared" si="2"/>
+        <v>11.5</v>
+      </c>
+      <c r="AN20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="AO20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="AP20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="AQ20" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AR20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AS20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="AT20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="AU20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AV20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AW20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AX20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="AZ20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="BA20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="BB20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="BC20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="BD20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="BE20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="BF20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="BG20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.65</v>
+      </c>
+      <c r="BH20" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BI20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="BJ20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="BK20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BL20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.05</v>
+      </c>
+      <c r="BM20" s="3">
+        <f t="shared" si="2"/>
         <v>2.4</v>
       </c>
-      <c r="G20" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="O20" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="BN20" s="3">
+        <f t="shared" si="2"/>
+        <v>6.7</v>
+      </c>
+      <c r="BO20" s="3">
+        <f t="shared" ref="BO20:CG20" si="3">(BO19+BO21)/2</f>
+        <v>1.35</v>
+      </c>
+      <c r="BP20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.45</v>
+      </c>
+      <c r="BQ20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BR20" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="BS20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="BT20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BU20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.35</v>
+      </c>
+      <c r="BV20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BW20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BX20" s="3">
+        <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="T20" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="U20" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="V20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="W20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="X20" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="AG20" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AJ20" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="AK20" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>18.3</v>
-      </c>
-      <c r="AN20" s="2">
-        <v>15</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="AQ20" s="3">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="AR20" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="AS20" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="AT20" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="AU20" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="AV20" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AW20" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="AX20" s="2">
-        <v>2</v>
-      </c>
-      <c r="AY20" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AZ20" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="BA20" s="3">
+      <c r="BY20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BZ20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="CA20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="CB20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="CC20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="CD20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.35</v>
+      </c>
+      <c r="CE20" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="CF20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="CG20" s="3">
+        <f t="shared" si="3"/>
         <v>1.9</v>
-      </c>
-      <c r="BB20" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="BC20" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="BD20" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="BE20" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="BF20" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BG20" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="BH20" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BI20" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BJ20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="BK20" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="BL20" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BM20" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="BN20" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="BO20" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="BP20" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="BQ20" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="BR20" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="BS20" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="BT20" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BU20" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="BV20" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="BW20" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="BX20" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="BY20" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="BZ20" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="CA20" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="CB20" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="CC20" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="CD20" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="CE20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="CF20" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="CG20" s="3">
-        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:85" x14ac:dyDescent="0.15">
@@ -56421,256 +56597,340 @@
         <v>42522</v>
       </c>
       <c r="B31" s="3">
-        <v>2.2999999999999998</v>
+        <f>(B30+B32)/2</f>
+        <v>0.95</v>
       </c>
       <c r="C31" s="3">
-        <v>0.8</v>
+        <f t="shared" ref="C31:BN31" si="4">(C30+C32)/2</f>
+        <v>0.5</v>
       </c>
       <c r="D31" s="3">
-        <v>1.3</v>
+        <f t="shared" si="4"/>
+        <v>0.7</v>
       </c>
       <c r="E31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="R31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="S31" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="U31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.85</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="W31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="X31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="Y31" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Z31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AA31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="AC31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AE31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="AG31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.05</v>
+      </c>
+      <c r="AJ31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="AK31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="AL31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="AM31" s="3">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AN31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.85</v>
+      </c>
+      <c r="AO31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="AP31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="AQ31" s="3">
+        <f t="shared" si="4"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AR31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AS31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.05</v>
+      </c>
+      <c r="AT31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="AU31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AV31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AW31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="AX31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY31" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.05</v>
+      </c>
+      <c r="BA31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="BB31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.35</v>
+      </c>
+      <c r="BC31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="BD31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="BE31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="BF31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="BG31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.65</v>
+      </c>
+      <c r="BH31" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BI31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="BJ31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="BK31" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BL31" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BM31" s="3">
+        <f t="shared" si="4"/>
+        <v>2.35</v>
+      </c>
+      <c r="BN31" s="3">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="BO31" s="3">
+        <f t="shared" ref="BO31:CG31" si="5">(BO30+BO32)/2</f>
+        <v>1.35</v>
+      </c>
+      <c r="BP31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.45</v>
+      </c>
+      <c r="BQ31" s="3">
+        <f t="shared" si="5"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BR31" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BS31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="BT31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BU31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3</v>
+      </c>
+      <c r="BV31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BW31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BX31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="BY31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BZ31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.4</v>
+      </c>
+      <c r="CA31" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CB31" s="3">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="CC31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.65</v>
+      </c>
+      <c r="CD31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.35</v>
+      </c>
+      <c r="CE31" s="3">
+        <f t="shared" si="5"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="CF31" s="3">
+        <f t="shared" si="5"/>
+        <v>1.25</v>
+      </c>
+      <c r="CG31" s="3">
+        <f t="shared" si="5"/>
         <v>1.8</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="L31" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N31" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="O31" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="P31" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="R31" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="S31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="T31" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="U31" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="V31" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W31" s="2">
-        <v>3</v>
-      </c>
-      <c r="X31" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="Z31" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AA31" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AG31" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="AH31" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AI31" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AJ31" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AL31" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="AM31" s="3">
-        <v>17.8</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>10</v>
-      </c>
-      <c r="AO31" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AP31" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="AQ31" s="3">
-        <v>15.8</v>
-      </c>
-      <c r="AR31" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="AS31" s="2">
-        <v>4</v>
-      </c>
-      <c r="AT31" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="AU31" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="AV31" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AW31" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AX31" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="AY31" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="AZ31" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="BA31" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="BB31" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BC31" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="BD31" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="BE31" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="BF31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BG31" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="BH31" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="BI31" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="BJ31" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="BK31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BL31" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BM31" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="BN31" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="BO31" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="BP31" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="BQ31" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="BR31" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="BS31" s="2">
-        <v>2</v>
-      </c>
-      <c r="BT31" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="BU31" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="BV31" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="BW31" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="BX31" s="2">
-        <v>5</v>
-      </c>
-      <c r="BY31" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="BZ31" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="CA31" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="CB31" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="CC31" s="2">
-        <v>2</v>
-      </c>
-      <c r="CD31" s="2">
-        <v>2</v>
-      </c>
-      <c r="CE31" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="CF31" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="CG31" s="3">
-        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:85" x14ac:dyDescent="0.15">
@@ -59248,256 +59508,340 @@
         <v>42856</v>
       </c>
       <c r="B42" s="3">
+        <f>(B41+B43)/2</f>
+        <v>1.35</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:BN42" si="6">(C41+C43)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="K42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.65</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.05</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.35</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="P42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="R42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="S42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="U42" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.95</v>
+      </c>
+      <c r="X42" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Y42" s="3">
+        <f t="shared" si="6"/>
+        <v>2.15</v>
+      </c>
+      <c r="Z42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="AA42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="AD42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AE42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AF42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="AG42" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AH42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+      <c r="AJ42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="AK42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="AL42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+      <c r="AM42" s="3">
+        <f t="shared" si="6"/>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="AN42" s="3">
+        <f t="shared" si="6"/>
+        <v>2.8</v>
+      </c>
+      <c r="AO42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7</v>
+      </c>
+      <c r="AP42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.85</v>
+      </c>
+      <c r="AQ42" s="3">
+        <f t="shared" si="6"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="AR42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AS42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="AT42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="AU42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2</v>
+      </c>
+      <c r="AW42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AX42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="AY42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AZ42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.35</v>
+      </c>
+      <c r="BA42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.85</v>
+      </c>
+      <c r="BB42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="BC42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="BD42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="BE42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="BF42" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BG42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+      <c r="BH42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="BI42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.35</v>
+      </c>
+      <c r="BJ42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="BK42" s="3">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="BL42" s="3">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="BM42" s="3">
+        <f t="shared" si="6"/>
+        <v>3.35</v>
+      </c>
+      <c r="BN42" s="3">
+        <f t="shared" si="6"/>
+        <v>8.15</v>
+      </c>
+      <c r="BO42" s="3">
+        <f t="shared" ref="BO42:CG42" si="7">(BO41+BO43)/2</f>
         <v>2.1</v>
       </c>
-      <c r="C42" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="BP42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.45</v>
+      </c>
+      <c r="BQ42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.35</v>
+      </c>
+      <c r="BR42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.35</v>
+      </c>
+      <c r="BS42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.65</v>
+      </c>
+      <c r="BT42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="BU42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.45</v>
+      </c>
+      <c r="BV42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="BW42" s="3">
+        <f t="shared" si="7"/>
+        <v>2.15</v>
+      </c>
+      <c r="BX42" s="3">
+        <f t="shared" si="7"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BY42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="BZ42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="CA42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="CB42" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95</v>
+      </c>
+      <c r="CC42" s="3">
+        <f t="shared" si="7"/>
         <v>1.9</v>
       </c>
-      <c r="G42" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="L42" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="O42" s="2">
-        <v>2</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R42" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="U42" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="V42" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W42" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="X42" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AE42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AF42" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="AG42" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AH42" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="AI42" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="AJ42" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="AK42" s="2">
-        <v>2</v>
-      </c>
-      <c r="AL42" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="AM42" s="3">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="AN42" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AO42" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AP42" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AQ42" s="3">
-        <v>14.6</v>
-      </c>
-      <c r="AR42" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AS42" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="AT42" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="AU42" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="AV42" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AW42" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="AX42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="AY42" s="3">
+      <c r="CD42" s="3">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="CE42" s="3">
+        <f t="shared" si="7"/>
+        <v>0.6</v>
+      </c>
+      <c r="CF42" s="3">
+        <f t="shared" si="7"/>
         <v>1.7</v>
       </c>
-      <c r="AZ42" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="BA42" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BB42" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="BC42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BD42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BE42" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="BF42" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="BG42" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BH42" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BI42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BJ42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BK42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="BL42" s="2">
-        <v>2</v>
-      </c>
-      <c r="BM42" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="BN42" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="BO42" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="BP42" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="BQ42" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="BR42" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="BS42" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="BT42" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="BU42" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="BV42" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BW42" s="2">
-        <v>2</v>
-      </c>
-      <c r="BX42" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BY42" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="BZ42" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="CA42" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="CB42" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="CC42" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="CD42" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="CE42" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="CF42" s="3">
-        <v>2.4</v>
-      </c>
       <c r="CG42" s="3">
-        <v>2.4</v>
+        <f t="shared" si="7"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="43" spans="1:85" x14ac:dyDescent="0.15">
@@ -61818,256 +62162,340 @@
         <v>43160</v>
       </c>
       <c r="B52" s="3">
+        <f>(B51+B53)/2</f>
+        <v>1.4</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" ref="C52:BN52" si="8">(C51+C53)/2</f>
+        <v>0.7</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.35</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.35</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.35</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="R52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="V52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="W52" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="X52" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="Y52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="Z52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="AA52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AB52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AD52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AE52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AF52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="AG52" s="3">
+        <f t="shared" si="8"/>
+        <v>2.75</v>
+      </c>
+      <c r="AH52" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AI52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+      <c r="AJ52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="AK52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+      <c r="AL52" s="3">
+        <f t="shared" si="8"/>
+        <v>3.45</v>
+      </c>
+      <c r="AM52" s="3">
+        <f t="shared" si="8"/>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="AN52" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AO52" s="3">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AP52" s="3">
+        <f t="shared" si="8"/>
+        <v>3.6</v>
+      </c>
+      <c r="AQ52" s="3">
+        <f t="shared" si="8"/>
+        <v>10.8</v>
+      </c>
+      <c r="AR52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.3</v>
+      </c>
+      <c r="AS52" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AT52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AU52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+      <c r="AV52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AW52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AX52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+      <c r="AY52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="AZ52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="BA52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="BB52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.9</v>
+      </c>
+      <c r="BC52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.05</v>
+      </c>
+      <c r="BD52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BE52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="BF52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="BG52" s="3">
+        <f t="shared" si="8"/>
         <v>2.9</v>
       </c>
-      <c r="C52" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="D52" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="BH52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+      <c r="BI52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="BJ52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="BK52" s="3">
+        <f t="shared" si="8"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="BL52" s="3">
+        <f t="shared" si="8"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="BM52" s="3">
+        <f t="shared" si="8"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="BN52" s="3">
+        <f t="shared" si="8"/>
+        <v>7.65</v>
+      </c>
+      <c r="BO52" s="3">
+        <f t="shared" ref="BO52:CG52" si="9">(BO51+BO53)/2</f>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="BP52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.9</v>
+      </c>
+      <c r="BQ52" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BR52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="BS52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7</v>
+      </c>
+      <c r="BT52" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="BU52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="BV52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.85</v>
+      </c>
+      <c r="BW52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="BX52" s="3">
+        <f t="shared" si="9"/>
+        <v>3.25</v>
+      </c>
+      <c r="BY52" s="3">
+        <f t="shared" si="9"/>
         <v>2.4</v>
       </c>
-      <c r="G52" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="N52" s="2">
-        <v>2</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="BZ52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.35</v>
+      </c>
+      <c r="CA52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.25</v>
+      </c>
+      <c r="CB52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.05</v>
+      </c>
+      <c r="CC52" s="3">
+        <f t="shared" si="9"/>
+        <v>2.25</v>
+      </c>
+      <c r="CD52" s="3">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="S52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="T52" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="U52" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="V52" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="W52" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="X52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="AB52" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AE52" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="AF52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="AG52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="AH52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="AI52" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="AJ52" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="AK52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="AL52" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AM52" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AN52" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AO52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="AP52" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AQ52" s="2">
-        <v>11</v>
-      </c>
-      <c r="AR52" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="AS52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="AT52" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="AU52" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="AW52" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="AX52" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AY52" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AZ52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="BA52" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="BB52" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="BC52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="BD52" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="BE52" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="BF52" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BG52" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="BH52" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="BI52" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="BJ52" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="BK52" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="BL52" s="2">
-        <v>3</v>
-      </c>
-      <c r="BM52" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="BN52" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="BO52" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="BP52" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="BQ52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="BR52" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="BS52" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="BT52" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="BU52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="BV52" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="BW52" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="BX52" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="BY52" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="BZ52" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="CA52" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="CB52" s="2">
-        <v>2</v>
-      </c>
-      <c r="CC52" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="CD52" s="3">
-        <v>1.9</v>
-      </c>
       <c r="CE52" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="CF52" s="2">
-        <v>3</v>
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="CF52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7000000000000002</v>
       </c>
       <c r="CG52" s="3">
-        <v>2.1</v>
+        <f t="shared" si="9"/>
+        <v>2.25</v>
       </c>
     </row>
     <row r="53" spans="1:85" x14ac:dyDescent="0.15">
@@ -64645,256 +65073,340 @@
         <v>43497</v>
       </c>
       <c r="B63" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="C63" s="2">
+        <f>(B62+B64)/2</f>
+        <v>1.3</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" ref="C63:BN63" si="10">(C62+C64)/2</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.95</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.85</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="K63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="L63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.95</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="R63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.65</v>
+      </c>
+      <c r="S63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+      <c r="T63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="U63" s="3">
+        <f t="shared" si="10"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.65</v>
+      </c>
+      <c r="W63" s="3">
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="D63" s="2">
-        <v>4</v>
-      </c>
-      <c r="E63" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="F63" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="G63" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="H63" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I63" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="J63" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="K63" s="3">
+      <c r="X63" s="3">
+        <f t="shared" si="10"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.35</v>
+      </c>
+      <c r="Z63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="AA63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB63" s="3">
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
-      <c r="L63" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="M63" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="N63" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="O63" s="3">
+      <c r="AC63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AD63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="AE63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="AF63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG63" s="3">
+        <f t="shared" si="10"/>
+        <v>2.35</v>
+      </c>
+      <c r="AH63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AI63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="AJ63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="AK63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AL63" s="3">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="AM63" s="3">
+        <f t="shared" si="10"/>
+        <v>13.05</v>
+      </c>
+      <c r="AN63" s="3">
+        <f t="shared" si="10"/>
+        <v>3.05</v>
+      </c>
+      <c r="AO63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.8</v>
+      </c>
+      <c r="AP63" s="3">
+        <f t="shared" si="10"/>
         <v>3.3</v>
       </c>
-      <c r="P63" s="3">
-        <v>1.8</v>
-      </c>
-      <c r="Q63" s="3">
+      <c r="AQ63" s="3">
+        <f t="shared" si="10"/>
+        <v>9.85</v>
+      </c>
+      <c r="AR63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AS63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.75</v>
+      </c>
+      <c r="AT63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="AU63" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AV63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="AW63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="AX63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AY63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.45</v>
+      </c>
+      <c r="AZ63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4</v>
+      </c>
+      <c r="BA63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="BB63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6</v>
+      </c>
+      <c r="BC63" s="3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BD63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.05</v>
+      </c>
+      <c r="BE63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BF63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="BG63" s="3">
+        <f t="shared" si="10"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BH63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="BI63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BJ63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="BK63" s="3">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="BL63" s="3">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+      <c r="BM63" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3</v>
+      </c>
+      <c r="BN63" s="3">
+        <f t="shared" si="10"/>
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="BO63" s="3">
+        <f t="shared" ref="BO63:CG63" si="11">(BO62+BO64)/2</f>
+        <v>1.85</v>
+      </c>
+      <c r="BP63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.7</v>
+      </c>
+      <c r="BQ63" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BR63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.25</v>
+      </c>
+      <c r="BS63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="BT63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.75</v>
+      </c>
+      <c r="BU63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="BV63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="BW63" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="BX63" s="3">
+        <f t="shared" si="11"/>
+        <v>2.8499999999999996</v>
+      </c>
+      <c r="BY63" s="3">
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
-      <c r="R63" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="S63" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="T63" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="U63" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="V63" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="W63" s="2">
-        <v>4</v>
-      </c>
-      <c r="X63" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="Y63" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="Z63" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AA63" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="AB63" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AC63" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AD63" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="AE63" s="2">
-        <v>3</v>
-      </c>
-      <c r="AF63" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="AG63" s="2">
-        <v>5</v>
-      </c>
-      <c r="AH63" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AI63" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AJ63" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="AK63" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AL63" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AM63" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AN63" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AO63" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AP63" s="2">
-        <v>5</v>
-      </c>
-      <c r="AQ63" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="AR63" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AS63" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AT63" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="AU63" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AV63" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="AW63" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="AX63" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AY63" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="AZ63" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="BA63" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="BB63" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BC63" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="BD63" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="BE63" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="BF63" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="BG63" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BH63" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="BI63" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="BJ63" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="BK63" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="BL63" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="BM63" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="BN63" s="3">
-        <v>17.5</v>
-      </c>
-      <c r="BO63" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="BP63" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="BQ63" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="BR63" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="BS63" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="BT63" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="BU63" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="BV63" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="BW63" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="BX63" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BY63" s="3">
-        <v>4.8</v>
-      </c>
       <c r="BZ63" s="3">
-        <v>1.9</v>
+        <f t="shared" si="11"/>
+        <v>1.2</v>
       </c>
       <c r="CA63" s="3">
-        <v>3.2</v>
+        <f t="shared" si="11"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="CB63" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="CC63" s="2">
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>0.95</v>
+      </c>
+      <c r="CC63" s="3">
+        <f t="shared" si="11"/>
+        <v>2.15</v>
       </c>
       <c r="CD63" s="3">
-        <v>2.1</v>
+        <f t="shared" si="11"/>
+        <v>1.4500000000000002</v>
       </c>
       <c r="CE63" s="3">
-        <v>0.8</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
       </c>
       <c r="CF63" s="3">
-        <v>3.8</v>
+        <f t="shared" si="11"/>
+        <v>1.6</v>
       </c>
       <c r="CG63" s="3">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:85" x14ac:dyDescent="0.15">
@@ -67472,256 +67984,340 @@
         <v>43831</v>
       </c>
       <c r="B74" s="3">
-        <v>4.4000000000000004</v>
+        <f>(B73+B75)/2</f>
+        <v>1.2</v>
       </c>
       <c r="C74" s="3">
-        <v>2.2999999999999998</v>
+        <f t="shared" ref="C74:BN74" si="12">(C73+C75)/2</f>
+        <v>0.64999999999999991</v>
       </c>
       <c r="D74" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E74" s="2">
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.05</v>
       </c>
       <c r="F74" s="3">
-        <v>3.7</v>
+        <f t="shared" si="12"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G74" s="3">
-        <v>4.5999999999999996</v>
+        <f t="shared" si="12"/>
+        <v>1.05</v>
       </c>
       <c r="H74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="K74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.45</v>
+      </c>
+      <c r="L74" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="N74" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="P74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="R74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.65</v>
+      </c>
+      <c r="S74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.2</v>
+      </c>
+      <c r="T74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="U74" s="3">
+        <f t="shared" si="12"/>
+        <v>2.15</v>
+      </c>
+      <c r="V74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.6</v>
+      </c>
+      <c r="W74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.85</v>
+      </c>
+      <c r="X74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="Y74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.35</v>
+      </c>
+      <c r="Z74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="AA74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.35</v>
+      </c>
+      <c r="AC74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.05</v>
+      </c>
+      <c r="AE74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="AF74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AG74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="AH74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.55</v>
+      </c>
+      <c r="AJ74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AK74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.05</v>
+      </c>
+      <c r="AL74" s="3">
+        <f t="shared" si="12"/>
+        <v>3.05</v>
+      </c>
+      <c r="AM74" s="3">
+        <f t="shared" si="12"/>
+        <v>12.649999999999999</v>
+      </c>
+      <c r="AN74" s="3">
+        <f t="shared" si="12"/>
+        <v>2.5</v>
+      </c>
+      <c r="AO74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.7</v>
+      </c>
+      <c r="AP74" s="3">
+        <f t="shared" si="12"/>
+        <v>2.95</v>
+      </c>
+      <c r="AQ74" s="3">
+        <f t="shared" si="12"/>
+        <v>8.25</v>
+      </c>
+      <c r="AR74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.05</v>
+      </c>
+      <c r="AS74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="AT74" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AU74" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AV74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="AW74" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AX74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="AY74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.35</v>
+      </c>
+      <c r="AZ74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="BA74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BB74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="BC74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="BD74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.05</v>
+      </c>
+      <c r="BE74" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BF74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="BG74" s="3">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BH74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="BI74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="BJ74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.65</v>
+      </c>
+      <c r="BK74" s="3">
+        <f t="shared" si="12"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="BL74" s="3">
+        <f t="shared" si="12"/>
+        <v>1.25</v>
+      </c>
+      <c r="BM74" s="3">
+        <f t="shared" si="12"/>
+        <v>3.1</v>
+      </c>
+      <c r="BN74" s="3">
+        <f t="shared" si="12"/>
+        <v>7.3500000000000005</v>
+      </c>
+      <c r="BO74" s="3">
+        <f t="shared" ref="BO74:CG74" si="13">(BO73+BO75)/2</f>
+        <v>1.75</v>
+      </c>
+      <c r="BP74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.6</v>
+      </c>
+      <c r="BQ74" s="3">
+        <f t="shared" si="13"/>
+        <v>0.95</v>
+      </c>
+      <c r="BR74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="BS74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.6</v>
+      </c>
+      <c r="BT74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.7</v>
+      </c>
+      <c r="BU74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.4</v>
+      </c>
+      <c r="BV74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="BW74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.5</v>
+      </c>
+      <c r="BX74" s="3">
+        <f t="shared" si="13"/>
         <v>2.6</v>
       </c>
-      <c r="I74" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="J74" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="K74" s="3">
+      <c r="BY74" s="3">
+        <f t="shared" si="13"/>
+        <v>2.4</v>
+      </c>
+      <c r="BZ74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="CA74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="CB74" s="3">
+        <f t="shared" si="13"/>
+        <v>0.95</v>
+      </c>
+      <c r="CC74" s="3">
+        <f t="shared" si="13"/>
+        <v>2.1</v>
+      </c>
+      <c r="CD74" s="3">
+        <f t="shared" si="13"/>
+        <v>1.35</v>
+      </c>
+      <c r="CE74" s="3">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="CF74" s="3">
+        <f t="shared" si="13"/>
         <v>1.6</v>
       </c>
-      <c r="L74" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="M74" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="N74" s="2">
-        <v>3</v>
-      </c>
-      <c r="O74" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P74" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="R74" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="S74" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="T74" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="U74" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="V74" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="W74" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="X74" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="Y74" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="Z74" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AA74" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="AB74" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="AC74" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AD74" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="AE74" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AF74" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="AG74" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AH74" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="AI74" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AJ74" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="AK74" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="AL74" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AM74" s="3">
-        <v>21.1</v>
-      </c>
-      <c r="AN74" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AO74" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="AP74" s="2">
-        <v>7</v>
-      </c>
-      <c r="AQ74" s="3">
-        <v>22.8</v>
-      </c>
-      <c r="AR74" s="2">
-        <v>5</v>
-      </c>
-      <c r="AS74" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="AT74" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="AU74" s="2">
-        <v>3</v>
-      </c>
-      <c r="AV74" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AW74" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AX74" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="AY74" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="AZ74" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="BA74" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="BB74" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="BC74" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BD74" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="BE74" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BF74" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="BG74" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BH74" s="2">
-        <v>5</v>
-      </c>
-      <c r="BI74" s="2">
-        <v>5</v>
-      </c>
-      <c r="BJ74" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="BK74" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="BL74" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BM74" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="BN74" s="3">
-        <v>22.6</v>
-      </c>
-      <c r="BO74" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BP74" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="BQ74" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BR74" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BS74" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="BT74" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="BU74" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="BV74" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BW74" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="BX74" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="BY74" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="BZ74" s="2">
-        <v>2</v>
-      </c>
-      <c r="CA74" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="CB74" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="CC74" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="CD74" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="CE74" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="CF74" s="3">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="CG74" s="3">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="13"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:85" x14ac:dyDescent="0.15">
@@ -70299,256 +70895,340 @@
         <v>44166</v>
       </c>
       <c r="B85" s="3">
-        <v>4.8</v>
+        <f>(B84+B86)/2</f>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C85" s="3">
-        <v>2.4</v>
+        <f t="shared" ref="C85:BN85" si="14">(C84+C86)/2</f>
+        <v>0.6</v>
       </c>
       <c r="D85" s="3">
-        <v>3.5</v>
+        <f t="shared" si="14"/>
+        <v>0.95</v>
       </c>
       <c r="E85" s="3">
-        <v>4.3</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="F85" s="3">
-        <v>4.0999999999999996</v>
+        <f t="shared" si="14"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G85" s="3">
-        <v>4.9000000000000004</v>
+        <f t="shared" si="14"/>
+        <v>0.85</v>
       </c>
       <c r="H85" s="3">
-        <v>2.6</v>
+        <f t="shared" si="14"/>
+        <v>0.5</v>
       </c>
       <c r="I85" s="3">
-        <v>5.7</v>
+        <f t="shared" si="14"/>
+        <v>0.85</v>
       </c>
       <c r="J85" s="3">
-        <v>3.6</v>
+        <f t="shared" si="14"/>
+        <v>0.75</v>
       </c>
       <c r="K85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.45</v>
+      </c>
+      <c r="L85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="N85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="R85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.65</v>
+      </c>
+      <c r="S85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="T85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.45</v>
+      </c>
+      <c r="U85" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="V85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="W85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.8</v>
+      </c>
+      <c r="X85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.3</v>
+      </c>
+      <c r="Z85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AA85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.35</v>
+      </c>
+      <c r="AC85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AD85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AE85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.65</v>
+      </c>
+      <c r="AF85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG85" s="3">
+        <f t="shared" si="14"/>
         <v>1.6</v>
       </c>
-      <c r="L85" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="M85" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="N85" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="O85" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="P85" s="3">
+      <c r="AH85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.65</v>
+      </c>
+      <c r="AI85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.4</v>
+      </c>
+      <c r="AJ85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AK85" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AL85" s="3">
+        <f t="shared" si="14"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="AM85" s="3">
+        <f t="shared" si="14"/>
+        <v>12.35</v>
+      </c>
+      <c r="AN85" s="3">
+        <f t="shared" si="14"/>
+        <v>2.15</v>
+      </c>
+      <c r="AO85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="AP85" s="3">
+        <f t="shared" si="14"/>
+        <v>2.8</v>
+      </c>
+      <c r="AQ85" s="3">
+        <f t="shared" si="14"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AR85" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="AS85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.4</v>
+      </c>
+      <c r="AT85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AU85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="AV85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="AW85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.95</v>
+      </c>
+      <c r="AX85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.85</v>
+      </c>
+      <c r="AY85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="AZ85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.35</v>
+      </c>
+      <c r="BA85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BB85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.3</v>
+      </c>
+      <c r="BC85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BD85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="BE85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.95</v>
+      </c>
+      <c r="BF85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.65</v>
+      </c>
+      <c r="BG85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.8</v>
+      </c>
+      <c r="BH85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.3</v>
+      </c>
+      <c r="BI85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.7</v>
+      </c>
+      <c r="BJ85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BK85" s="3">
+        <f t="shared" si="14"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BL85" s="3">
+        <f t="shared" si="14"/>
+        <v>1.2</v>
+      </c>
+      <c r="BM85" s="3">
+        <f t="shared" si="14"/>
+        <v>2.95</v>
+      </c>
+      <c r="BN85" s="3">
+        <f t="shared" si="14"/>
+        <v>7.1</v>
+      </c>
+      <c r="BO85" s="3">
+        <f t="shared" ref="BO85:CG85" si="15">(BO84+BO86)/2</f>
+        <v>1.65</v>
+      </c>
+      <c r="BP85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="BQ85" s="3">
+        <f t="shared" si="15"/>
+        <v>0.9</v>
+      </c>
+      <c r="BR85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BS85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.55</v>
+      </c>
+      <c r="BT85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.6</v>
+      </c>
+      <c r="BU85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.3</v>
+      </c>
+      <c r="BV85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.35</v>
+      </c>
+      <c r="BW85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.4</v>
+      </c>
+      <c r="BX85" s="3">
+        <f t="shared" si="15"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BY85" s="3">
+        <f t="shared" si="15"/>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="BZ85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="CA85" s="3">
+        <f t="shared" si="15"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="CB85" s="3">
+        <f t="shared" si="15"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="CC85" s="3">
+        <f t="shared" si="15"/>
         <v>2.1</v>
       </c>
-      <c r="Q85" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="R85" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="S85" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="T85" s="2">
-        <v>3</v>
-      </c>
-      <c r="U85" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="V85" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="W85" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="X85" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="Y85" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z85" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AA85" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="AB85" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="AC85" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="AD85" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AE85" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="AF85" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AG85" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AH85" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AI85" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AJ85" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AK85" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="AL85" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AM85" s="2">
-        <v>24</v>
-      </c>
-      <c r="AN85" s="3">
-        <v>15.1</v>
-      </c>
-      <c r="AO85" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AP85" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AQ85" s="3">
-        <v>25.8</v>
-      </c>
-      <c r="AR85" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="AS85" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AT85" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AU85" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AV85" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AW85" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AX85" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AY85" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="AZ85" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BA85" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="BB85" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="BC85" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BD85" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BE85" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BF85" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BG85" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="BH85" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BI85" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="BJ85" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="BK85" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="BL85" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BM85" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="BN85" s="3">
-        <v>24.4</v>
-      </c>
-      <c r="BO85" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BP85" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="BQ85" s="2">
-        <v>5</v>
-      </c>
-      <c r="BR85" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="BS85" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="BT85" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="BU85" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BV85" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="BW85" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="BX85" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="BY85" s="2">
-        <v>7</v>
-      </c>
-      <c r="BZ85" s="2">
-        <v>2</v>
-      </c>
-      <c r="CA85" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="CB85" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="CC85" s="3">
-        <v>5.2</v>
-      </c>
       <c r="CD85" s="3">
-        <v>2.4</v>
+        <f t="shared" si="15"/>
+        <v>1.25</v>
       </c>
       <c r="CE85" s="3">
-        <v>0.8</v>
+        <f t="shared" si="15"/>
+        <v>0.45</v>
       </c>
       <c r="CF85" s="3">
-        <v>5.3</v>
+        <f t="shared" si="15"/>
+        <v>1.55</v>
       </c>
       <c r="CG85" s="3">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="15"/>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:85" x14ac:dyDescent="0.15">
@@ -73126,256 +73806,340 @@
         <v>44501</v>
       </c>
       <c r="B96" s="3">
-        <v>4.9000000000000004</v>
+        <f>(B95+B97)/2</f>
+        <v>1.05</v>
       </c>
       <c r="C96" s="3">
-        <v>2.2999999999999998</v>
+        <f t="shared" ref="C96:BN96" si="16">(C95+C97)/2</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D96" s="3">
-        <v>3.2</v>
+        <f t="shared" si="16"/>
+        <v>0.85000000000000009</v>
       </c>
       <c r="E96" s="3">
-        <v>4.3</v>
+        <f t="shared" si="16"/>
+        <v>0.9</v>
       </c>
       <c r="F96" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="G96" s="2">
-        <v>5</v>
+        <f t="shared" si="16"/>
+        <v>1.05</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
       </c>
       <c r="H96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.45</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="K96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="L96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="M96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+      <c r="N96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="R96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.05</v>
+      </c>
+      <c r="T96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.45</v>
+      </c>
+      <c r="U96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="V96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="W96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="X96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.45</v>
+      </c>
+      <c r="AB96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.3</v>
+      </c>
+      <c r="AC96" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AD96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.85</v>
+      </c>
+      <c r="AE96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AF96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.05</v>
+      </c>
+      <c r="AG96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="AI96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AJ96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AK96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.9</v>
+      </c>
+      <c r="AL96" s="3">
+        <f t="shared" si="16"/>
+        <v>2.6</v>
+      </c>
+      <c r="AM96" s="3">
+        <f t="shared" si="16"/>
+        <v>12.2</v>
+      </c>
+      <c r="AN96" s="3">
+        <f t="shared" si="16"/>
+        <v>2.15</v>
+      </c>
+      <c r="AO96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="AP96" s="3">
+        <f t="shared" si="16"/>
         <v>2.4</v>
       </c>
-      <c r="I96" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="J96" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K96" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="L96" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="M96" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="N96" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="O96" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="P96" s="2">
+      <c r="AQ96" s="3">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="AR96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.9</v>
+      </c>
+      <c r="AS96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.25</v>
+      </c>
+      <c r="AT96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="AU96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.9</v>
+      </c>
+      <c r="AV96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.65</v>
+      </c>
+      <c r="AW96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AX96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.85</v>
+      </c>
+      <c r="AY96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AZ96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BA96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="BB96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BC96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+      <c r="BD96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.9</v>
+      </c>
+      <c r="BE96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BF96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="BG96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.4</v>
+      </c>
+      <c r="BH96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BI96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BJ96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.45</v>
+      </c>
+      <c r="BK96" s="3">
+        <f t="shared" si="16"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BL96" s="3">
+        <f t="shared" si="16"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BM96" s="3">
+        <f t="shared" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="BN96" s="3">
+        <f t="shared" si="16"/>
+        <v>6.8999999999999995</v>
+      </c>
+      <c r="BO96" s="3">
+        <f t="shared" ref="BO96:CG96" si="17">(BO95+BO97)/2</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="BP96" s="3">
+        <f t="shared" si="17"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="BQ96" s="3">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="BR96" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="BS96" s="3">
+        <f t="shared" si="17"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="BT96" s="3">
+        <f t="shared" si="17"/>
+        <v>1.45</v>
+      </c>
+      <c r="BU96" s="3">
+        <f t="shared" si="17"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BV96" s="3">
+        <f t="shared" si="17"/>
+        <v>1.2</v>
+      </c>
+      <c r="BW96" s="3">
+        <f t="shared" si="17"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BX96" s="3">
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="Q96" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="R96" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="S96" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="T96" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="U96" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="V96" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="W96" s="2">
-        <v>5</v>
-      </c>
-      <c r="X96" s="2">
-        <v>4</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="AC96" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="AD96" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="AE96" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="AF96" s="2">
-        <v>7</v>
-      </c>
-      <c r="AG96" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AH96" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="AI96" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AJ96" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="AK96" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="AL96" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AM96" s="2">
-        <v>25</v>
-      </c>
-      <c r="AN96" s="3">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="AO96" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AP96" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AQ96" s="3">
-        <v>25.9</v>
-      </c>
-      <c r="AR96" s="2">
-        <v>6</v>
-      </c>
-      <c r="AS96" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AT96" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="AU96" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="AV96" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AW96" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="AX96" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="AY96" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="AZ96" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BA96" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="BB96" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="BC96" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="BD96" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="BE96" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="BF96" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="BG96" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="BH96" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BI96" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="BJ96" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="BK96" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="BL96" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BM96" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="BN96" s="3">
-        <v>23.5</v>
-      </c>
-      <c r="BO96" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BP96" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="BQ96" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BR96" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BS96" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="BT96" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BU96" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BV96" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BW96" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="BX96" s="3">
-        <v>6.5</v>
-      </c>
       <c r="BY96" s="3">
-        <v>6.8</v>
+        <f t="shared" si="17"/>
+        <v>1.5</v>
       </c>
       <c r="BZ96" s="3">
-        <v>2.1</v>
+        <f t="shared" si="17"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="CA96" s="3">
-        <v>2.8</v>
+        <f t="shared" si="17"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="CB96" s="3">
-        <v>3.8</v>
+        <f t="shared" si="17"/>
+        <v>0.8</v>
       </c>
       <c r="CC96" s="3">
-        <v>5.3</v>
+        <f t="shared" si="17"/>
+        <v>1.9000000000000001</v>
       </c>
       <c r="CD96" s="3">
-        <v>2.4</v>
+        <f t="shared" si="17"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="CE96" s="3">
-        <v>0.8</v>
+        <f t="shared" si="17"/>
+        <v>0.45</v>
       </c>
       <c r="CF96" s="3">
-        <v>5.5</v>
+        <f t="shared" si="17"/>
+        <v>1.4</v>
       </c>
       <c r="CG96" s="3">
-        <v>2.1</v>
+        <f t="shared" si="17"/>
+        <v>1.65</v>
       </c>
     </row>
     <row r="97" spans="1:85" x14ac:dyDescent="0.15">
@@ -75953,256 +76717,340 @@
         <v>44835</v>
       </c>
       <c r="B107" s="3">
-        <v>4.5999999999999996</v>
+        <f>(B106+B108)/2</f>
+        <v>0.95000000000000007</v>
       </c>
       <c r="C107" s="3">
-        <v>1.9</v>
+        <f t="shared" ref="C107:BN107" si="18">(C106+C108)/2</f>
+        <v>0.5</v>
       </c>
       <c r="D107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.75</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.9</v>
+      </c>
+      <c r="F107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.05</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.7</v>
+      </c>
+      <c r="H107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.45</v>
+      </c>
+      <c r="I107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="J107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="K107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.35</v>
+      </c>
+      <c r="L107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.65</v>
+      </c>
+      <c r="M107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.75</v>
+      </c>
+      <c r="N107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.7</v>
+      </c>
+      <c r="O107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.95</v>
+      </c>
+      <c r="P107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="R107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="S107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.05</v>
+      </c>
+      <c r="T107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.45</v>
+      </c>
+      <c r="U107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="V107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="W107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="X107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.05</v>
+      </c>
+      <c r="Z107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.95</v>
+      </c>
+      <c r="AA107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.45</v>
+      </c>
+      <c r="AB107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.4</v>
+      </c>
+      <c r="AC107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.95</v>
+      </c>
+      <c r="AD107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.75</v>
+      </c>
+      <c r="AE107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AF107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AG107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="AI107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AK107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AL107" s="3">
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
-      <c r="E107" s="2">
-        <v>4</v>
-      </c>
-      <c r="F107" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="G107" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H107" s="2">
-        <v>2</v>
-      </c>
-      <c r="I107" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="J107" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="K107" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L107" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="M107" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="N107" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="O107" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="P107" s="3">
+      <c r="AM107" s="3">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="AN107" s="3">
+        <f t="shared" si="18"/>
+        <v>2.15</v>
+      </c>
+      <c r="AO107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.4</v>
+      </c>
+      <c r="AP107" s="3">
+        <f t="shared" si="18"/>
+        <v>2.1</v>
+      </c>
+      <c r="AQ107" s="3">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AR107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.85</v>
+      </c>
+      <c r="AS107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.2</v>
+      </c>
+      <c r="AT107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.7</v>
+      </c>
+      <c r="AU107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AV107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.6</v>
+      </c>
+      <c r="AW107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AX107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="AY107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ107" s="3">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BA107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.45</v>
+      </c>
+      <c r="BB107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BC107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.8</v>
+      </c>
+      <c r="BD107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.9</v>
+      </c>
+      <c r="BE107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.75</v>
+      </c>
+      <c r="BF107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="BG107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.35</v>
+      </c>
+      <c r="BH107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BI107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BJ107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.45</v>
+      </c>
+      <c r="BK107" s="3">
+        <f t="shared" si="18"/>
+        <v>0.5</v>
+      </c>
+      <c r="BL107" s="3">
+        <f t="shared" si="18"/>
+        <v>1.05</v>
+      </c>
+      <c r="BM107" s="3">
+        <f t="shared" si="18"/>
+        <v>2.25</v>
+      </c>
+      <c r="BN107" s="3">
+        <f t="shared" si="18"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="BO107" s="3">
+        <f t="shared" ref="BO107:CG107" si="19">(BO106+BO108)/2</f>
+        <v>1.4</v>
+      </c>
+      <c r="BP107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="BQ107" s="3">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="BR107" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="BS107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.25</v>
+      </c>
+      <c r="BT107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.35</v>
+      </c>
+      <c r="BU107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BV107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BW107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BX107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="BY107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.3</v>
+      </c>
+      <c r="BZ107" s="3">
+        <f t="shared" si="19"/>
+        <v>1.25</v>
+      </c>
+      <c r="CA107" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="CB107" s="3">
+        <f t="shared" si="19"/>
+        <v>0.75</v>
+      </c>
+      <c r="CC107" s="3">
+        <f t="shared" si="19"/>
         <v>1.7</v>
       </c>
-      <c r="Q107" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="R107" s="3">
-        <v>2.4</v>
-      </c>
-      <c r="S107" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="T107" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="U107" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="V107" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="W107" s="3">
-        <v>4.8</v>
-      </c>
-      <c r="X107" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="Y107" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="Z107" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AA107" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="AB107" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="AC107" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="AD107" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="AE107" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="AF107" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AG107" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AH107" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="AI107" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AJ107" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="AK107" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="AL107" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AM107" s="3">
-        <v>23.9</v>
-      </c>
-      <c r="AN107" s="3">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AO107" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AP107" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AQ107" s="2">
-        <v>21</v>
-      </c>
-      <c r="AR107" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AS107" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AT107" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="AU107" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="AV107" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="AW107" s="2">
-        <v>3</v>
-      </c>
-      <c r="AX107" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="AY107" s="2">
-        <v>4</v>
-      </c>
-      <c r="AZ107" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="BA107" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="BB107" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="BC107" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="BD107" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="BE107" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="BF107" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="BG107" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="BH107" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BI107" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BJ107" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="BK107" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BL107" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="BM107" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="BN107" s="3">
-        <v>21.8</v>
-      </c>
-      <c r="BO107" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="BP107" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="BQ107" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="BR107" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="BS107" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="BT107" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="BU107" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BV107" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="BW107" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BX107" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="BY107" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="BZ107" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="CA107" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="CB107" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="CC107" s="3">
-        <v>4.7</v>
-      </c>
       <c r="CD107" s="3">
-        <v>2.5</v>
+        <f t="shared" si="19"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="CE107" s="3">
-        <v>0.8</v>
+        <f t="shared" si="19"/>
+        <v>0.45</v>
       </c>
       <c r="CF107" s="3">
-        <v>5.2</v>
+        <f t="shared" si="19"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="CG107" s="3">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="19"/>
+        <v>1.75</v>
       </c>
     </row>
     <row r="108" spans="1:85" x14ac:dyDescent="0.15">
@@ -78780,256 +79628,340 @@
         <v>45170</v>
       </c>
       <c r="B118" s="3">
-        <v>4.2</v>
+        <f>(B117+B119)/2</f>
+        <v>1</v>
       </c>
       <c r="C118" s="3">
+        <f t="shared" ref="C118:BN118" si="20">(C117+C119)/2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.75</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F118" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.7</v>
+      </c>
+      <c r="H118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.45</v>
+      </c>
+      <c r="I118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.7</v>
+      </c>
+      <c r="J118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="K118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.4</v>
+      </c>
+      <c r="L118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="M118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.75</v>
+      </c>
+      <c r="N118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.75</v>
+      </c>
+      <c r="O118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.95</v>
+      </c>
+      <c r="P118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="R118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.45</v>
+      </c>
+      <c r="S118" s="3">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="T118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.45</v>
+      </c>
+      <c r="U118" s="3">
+        <f t="shared" si="20"/>
+        <v>1.85</v>
+      </c>
+      <c r="V118" s="3">
+        <f t="shared" si="20"/>
         <v>1.5</v>
       </c>
-      <c r="D118" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E118" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="F118" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="G118" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H118" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="I118" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="J118" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="K118" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="L118" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="M118" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="N118" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="O118" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="P118" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="Q118" s="2">
-        <v>3</v>
-      </c>
-      <c r="R118" s="3">
+      <c r="W118" s="3">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="X118" s="3">
+        <f t="shared" si="20"/>
+        <v>1.75</v>
+      </c>
+      <c r="Y118" s="3">
+        <f t="shared" si="20"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.95</v>
+      </c>
+      <c r="AA118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.45</v>
+      </c>
+      <c r="AB118" s="3">
+        <f t="shared" si="20"/>
+        <v>1.45</v>
+      </c>
+      <c r="AC118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.7</v>
+      </c>
+      <c r="AE118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AF118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
+      </c>
+      <c r="AG118" s="3">
+        <f t="shared" si="20"/>
+        <v>1.5</v>
+      </c>
+      <c r="AH118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI118" s="3">
+        <f t="shared" si="20"/>
+        <v>1.2</v>
+      </c>
+      <c r="AJ118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="AK118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.8</v>
+      </c>
+      <c r="AL118" s="3">
+        <f t="shared" si="20"/>
+        <v>2.4</v>
+      </c>
+      <c r="AM118" s="3">
+        <f t="shared" si="20"/>
+        <v>12.05</v>
+      </c>
+      <c r="AN118" s="3">
+        <f t="shared" si="20"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="S118" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T118" s="2">
-        <v>2</v>
-      </c>
-      <c r="U118" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="V118" s="2">
-        <v>4</v>
-      </c>
-      <c r="W118" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="X118" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="Y118" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="Z118" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AA118" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="AB118" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AC118" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="AD118" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="AE118" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="AF118" s="3">
-        <v>5.9</v>
-      </c>
-      <c r="AG118" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AH118" s="3">
-        <v>3.9</v>
-      </c>
-      <c r="AI118" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AJ118" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AK118" s="3">
-        <v>5.4</v>
-      </c>
-      <c r="AL118" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AM118" s="3">
-        <v>21.1</v>
-      </c>
-      <c r="AN118" s="3">
-        <v>16.600000000000001</v>
-      </c>
       <c r="AO118" s="3">
-        <v>11.8</v>
+        <f t="shared" si="20"/>
+        <v>1.4</v>
       </c>
       <c r="AP118" s="3">
-        <v>7.1</v>
+        <f t="shared" si="20"/>
+        <v>1.85</v>
       </c>
       <c r="AQ118" s="3">
-        <v>20.9</v>
+        <f t="shared" si="20"/>
+        <v>8</v>
       </c>
       <c r="AR118" s="3">
-        <v>6.1</v>
+        <f t="shared" si="20"/>
+        <v>0.85</v>
       </c>
       <c r="AS118" s="3">
-        <v>6.1</v>
+        <f t="shared" si="20"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT118" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AU118" s="2">
-        <v>3</v>
+        <f t="shared" si="20"/>
+        <v>0.75</v>
+      </c>
+      <c r="AU118" s="3">
+        <f t="shared" si="20"/>
+        <v>0.9</v>
       </c>
       <c r="AV118" s="3">
-        <v>2.7</v>
+        <f t="shared" si="20"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AW118" s="3">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="20"/>
+        <v>0.9</v>
       </c>
       <c r="AX118" s="3">
-        <v>3.1</v>
+        <f t="shared" si="20"/>
+        <v>0.8</v>
       </c>
       <c r="AY118" s="3">
-        <v>3.4</v>
+        <f t="shared" si="20"/>
+        <v>1.05</v>
       </c>
       <c r="AZ118" s="3">
-        <v>3.9</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
       </c>
       <c r="BA118" s="3">
-        <v>3.3</v>
+        <f t="shared" si="20"/>
+        <v>0.45</v>
       </c>
       <c r="BB118" s="3">
-        <v>6.3</v>
+        <f t="shared" si="20"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="BC118" s="3">
-        <v>3.4</v>
+        <f t="shared" si="20"/>
+        <v>0.8</v>
       </c>
       <c r="BD118" s="3">
-        <v>3.6</v>
+        <f t="shared" si="20"/>
+        <v>0.85000000000000009</v>
       </c>
       <c r="BE118" s="3">
-        <v>4.4000000000000004</v>
+        <f t="shared" si="20"/>
+        <v>0.8</v>
       </c>
       <c r="BF118" s="3">
-        <v>4.4000000000000004</v>
+        <f t="shared" si="20"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BG118" s="3">
-        <v>7.5</v>
+        <f t="shared" si="20"/>
+        <v>1.5499999999999998</v>
       </c>
       <c r="BH118" s="3">
-        <v>5.6</v>
+        <f t="shared" si="20"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI118" s="3">
-        <v>3.7</v>
+        <f t="shared" si="20"/>
+        <v>0.6</v>
       </c>
       <c r="BJ118" s="3">
-        <v>3.1</v>
+        <f t="shared" si="20"/>
+        <v>0.45</v>
       </c>
       <c r="BK118" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="BL118" s="2">
-        <v>4</v>
-      </c>
-      <c r="BM118" s="2">
-        <v>12</v>
+        <f t="shared" si="20"/>
+        <v>0.5</v>
+      </c>
+      <c r="BL118" s="3">
+        <f t="shared" si="20"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BM118" s="3">
+        <f t="shared" si="20"/>
+        <v>2.25</v>
       </c>
       <c r="BN118" s="3">
-        <v>19.2</v>
+        <f t="shared" si="20"/>
+        <v>6.15</v>
       </c>
       <c r="BO118" s="3">
-        <v>5.0999999999999996</v>
+        <f t="shared" ref="BO118:CG118" si="21">(BO117+BO119)/2</f>
+        <v>1.4500000000000002</v>
       </c>
       <c r="BP118" s="3">
-        <v>3.2</v>
+        <f t="shared" si="21"/>
+        <v>1.3</v>
       </c>
       <c r="BQ118" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BR118" s="2">
-        <v>4</v>
-      </c>
-      <c r="BS118" s="2">
-        <v>5</v>
+        <f t="shared" si="21"/>
+        <v>0.8</v>
+      </c>
+      <c r="BR118" s="3">
+        <f t="shared" si="21"/>
+        <v>0.95</v>
+      </c>
+      <c r="BS118" s="3">
+        <f t="shared" si="21"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="BT118" s="3">
-        <v>5.2</v>
+        <f t="shared" si="21"/>
+        <v>1.35</v>
       </c>
       <c r="BU118" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="BV118" s="2">
-        <v>6</v>
+        <f t="shared" si="21"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="BV118" s="3">
+        <f t="shared" si="21"/>
+        <v>1.2</v>
       </c>
       <c r="BW118" s="3">
-        <v>5.4</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="BX118" s="3">
-        <v>6.3</v>
+        <f t="shared" si="21"/>
+        <v>1.75</v>
       </c>
       <c r="BY118" s="3">
-        <v>5.9</v>
+        <f t="shared" si="21"/>
+        <v>1.2</v>
       </c>
       <c r="BZ118" s="3">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="21"/>
+        <v>1.3</v>
       </c>
       <c r="CA118" s="3">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="CB118" s="3">
+        <f t="shared" si="21"/>
+        <v>0.75</v>
+      </c>
+      <c r="CC118" s="3">
+        <f t="shared" si="21"/>
         <v>1.7</v>
       </c>
-      <c r="CB118" s="2">
-        <v>3</v>
-      </c>
-      <c r="CC118" s="3">
-        <v>3.9</v>
-      </c>
       <c r="CD118" s="3">
-        <v>2.5</v>
+        <f t="shared" si="21"/>
+        <v>1.2999999999999998</v>
       </c>
       <c r="CE118" s="3">
-        <v>0.8</v>
+        <f t="shared" si="21"/>
+        <v>0.45</v>
       </c>
       <c r="CF118" s="3">
-        <v>4.5999999999999996</v>
+        <f t="shared" si="21"/>
+        <v>1.1499999999999999</v>
       </c>
       <c r="CG118" s="3">
-        <v>2.2999999999999998</v>
+        <f t="shared" si="21"/>
+        <v>1.8</v>
       </c>
     </row>
     <row r="119" spans="1:85" x14ac:dyDescent="0.15">
@@ -81607,256 +82539,340 @@
         <v>45505</v>
       </c>
       <c r="B129" s="3">
-        <v>3.7</v>
+        <f>(B128+B130)/2</f>
+        <v>0.95</v>
       </c>
       <c r="C129" s="3">
-        <v>1.2</v>
+        <f t="shared" ref="C129:BN129" si="22">(C128+C130)/2</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D129" s="3">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="22"/>
+        <v>0.8</v>
       </c>
       <c r="E129" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="F129" s="2">
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.95000000000000007</v>
       </c>
       <c r="G129" s="3">
-        <v>4.2</v>
+        <f t="shared" si="22"/>
+        <v>0.64999999999999991</v>
       </c>
       <c r="H129" s="3">
-        <v>1.3</v>
+        <f t="shared" si="22"/>
+        <v>0.45</v>
       </c>
       <c r="I129" s="3">
-        <v>3.7</v>
+        <f t="shared" si="22"/>
+        <v>0.75</v>
       </c>
       <c r="J129" s="3">
-        <v>2.6</v>
+        <f t="shared" si="22"/>
+        <v>0.64999999999999991</v>
       </c>
       <c r="K129" s="3">
-        <v>0.9</v>
+        <f t="shared" si="22"/>
+        <v>0.4</v>
       </c>
       <c r="L129" s="3">
-        <v>3.2</v>
+        <f t="shared" si="22"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="N129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.7</v>
+      </c>
+      <c r="O129" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="P129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.6</v>
+      </c>
+      <c r="R129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="S129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.45</v>
+      </c>
+      <c r="U129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.9</v>
+      </c>
+      <c r="V129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="W129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.6</v>
+      </c>
+      <c r="X129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="Y129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AA129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.45</v>
+      </c>
+      <c r="AB129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.5</v>
+      </c>
+      <c r="AC129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.7</v>
+      </c>
+      <c r="AE129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.65</v>
+      </c>
+      <c r="AF129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AG129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.65</v>
+      </c>
+      <c r="AH129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.45</v>
+      </c>
+      <c r="AJ129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AK129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AL129" s="3">
+        <f t="shared" si="22"/>
+        <v>2.1</v>
+      </c>
+      <c r="AM129" s="3">
+        <f t="shared" si="22"/>
+        <v>12.2</v>
+      </c>
+      <c r="AN129" s="3">
+        <f t="shared" si="22"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AO129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.35</v>
+      </c>
+      <c r="AP129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.75</v>
+      </c>
+      <c r="AQ129" s="3">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="AR129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="AS129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.05</v>
+      </c>
+      <c r="AT129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="AU129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.9</v>
+      </c>
+      <c r="AV129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AW129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.95</v>
+      </c>
+      <c r="AX129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="AY129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AZ129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.05</v>
+      </c>
+      <c r="BA129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.45</v>
+      </c>
+      <c r="BB129" s="3">
+        <f t="shared" si="22"/>
+        <v>1.3</v>
+      </c>
+      <c r="BC129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="BD129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="BE129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.8</v>
+      </c>
+      <c r="BF129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BG129" s="3">
+        <f t="shared" si="22"/>
         <v>1.7</v>
       </c>
-      <c r="N129" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="O129" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="P129" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="Q129" s="2">
-        <v>3</v>
-      </c>
-      <c r="R129" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="S129" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="T129" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="U129" s="3">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="V129" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="W129" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="X129" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="Y129" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="Z129" s="3">
-        <v>5.7</v>
-      </c>
-      <c r="AA129" s="3">
-        <v>3.1</v>
-      </c>
-      <c r="AB129" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AC129" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AD129" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AE129" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="AF129" s="3">
-        <v>5.2</v>
-      </c>
-      <c r="AG129" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AH129" s="3">
-        <v>3.7</v>
-      </c>
-      <c r="AI129" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="AJ129" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AK129" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="AL129" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AM129" s="3">
-        <v>18.7</v>
-      </c>
-      <c r="AN129" s="3">
-        <v>16.8</v>
-      </c>
-      <c r="AO129" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AP129" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AQ129" s="3">
-        <v>19.8</v>
-      </c>
-      <c r="AR129" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AS129" s="3">
-        <v>5.6</v>
-      </c>
-      <c r="AT129" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AU129" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="AV129" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="AW129" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="AX129" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="AY129" s="3">
-        <v>2.9</v>
-      </c>
-      <c r="AZ129" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="BA129" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="BB129" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="BC129" s="3">
-        <v>2.7</v>
-      </c>
-      <c r="BD129" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="BE129" s="2">
-        <v>3</v>
-      </c>
-      <c r="BF129" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="BG129" s="3">
-        <v>7.6</v>
-      </c>
       <c r="BH129" s="3">
-        <v>5.4</v>
+        <f t="shared" si="22"/>
+        <v>1.05</v>
       </c>
       <c r="BI129" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="BJ129" s="2">
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="BJ129" s="3">
+        <f t="shared" si="22"/>
+        <v>0.45</v>
       </c>
       <c r="BK129" s="3">
-        <v>2.1</v>
+        <f t="shared" si="22"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="BL129" s="3">
-        <v>3.5</v>
+        <f t="shared" si="22"/>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM129" s="3">
-        <v>10.5</v>
+        <f t="shared" si="22"/>
+        <v>2.3499999999999996</v>
       </c>
       <c r="BN129" s="3">
-        <v>15.1</v>
+        <f t="shared" si="22"/>
+        <v>6.2</v>
       </c>
       <c r="BO129" s="3">
-        <v>5.4</v>
+        <f t="shared" ref="BO129:CG129" si="23">(BO128+BO130)/2</f>
+        <v>1.5499999999999998</v>
       </c>
       <c r="BP129" s="3">
-        <v>3.2</v>
+        <f t="shared" si="23"/>
+        <v>1.5</v>
       </c>
       <c r="BQ129" s="3">
-        <v>3.5</v>
+        <f t="shared" si="23"/>
+        <v>0.8</v>
       </c>
       <c r="BR129" s="3">
-        <v>2.5</v>
+        <f t="shared" si="23"/>
+        <v>1</v>
       </c>
       <c r="BS129" s="3">
-        <v>3.5</v>
+        <f t="shared" si="23"/>
+        <v>1.2</v>
       </c>
       <c r="BT129" s="3">
-        <v>5.0999999999999996</v>
+        <f t="shared" si="23"/>
+        <v>1.35</v>
       </c>
       <c r="BU129" s="3">
-        <v>5.0999999999999996</v>
+        <f t="shared" si="23"/>
+        <v>1.2999999999999998</v>
       </c>
       <c r="BV129" s="3">
-        <v>5.9</v>
+        <f t="shared" si="23"/>
+        <v>1.25</v>
       </c>
       <c r="BW129" s="3">
-        <v>4.9000000000000004</v>
+        <f t="shared" si="23"/>
+        <v>1.05</v>
       </c>
       <c r="BX129" s="3">
-        <v>5.8</v>
+        <f t="shared" si="23"/>
+        <v>1.65</v>
       </c>
       <c r="BY129" s="3">
-        <v>5.3</v>
+        <f t="shared" si="23"/>
+        <v>1.25</v>
       </c>
       <c r="BZ129" s="3">
-        <v>2.2000000000000002</v>
+        <f t="shared" si="23"/>
+        <v>1.4</v>
       </c>
       <c r="CA129" s="3">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="CB129" s="3">
+        <f t="shared" si="23"/>
+        <v>0.8</v>
+      </c>
+      <c r="CC129" s="3">
+        <f t="shared" si="23"/>
         <v>1.8</v>
       </c>
-      <c r="CB129" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="CC129" s="3">
-        <v>3.2</v>
-      </c>
       <c r="CD129" s="3">
-        <v>2.6</v>
+        <f t="shared" si="23"/>
+        <v>1.35</v>
       </c>
       <c r="CE129" s="3">
-        <v>0.9</v>
+        <f t="shared" si="23"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="CF129" s="3">
-        <v>3.4</v>
+        <f t="shared" si="23"/>
+        <v>1.3</v>
       </c>
       <c r="CG129" s="3">
-        <v>2.1</v>
+        <f t="shared" si="23"/>
+        <v>1.9500000000000002</v>
       </c>
     </row>
     <row r="130" spans="1:85" x14ac:dyDescent="0.15">
